--- a/External_Resources/Board_Excel.xlsx
+++ b/External_Resources/Board_Excel.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\The_D\source\repos\Artifice\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\The_D\source\repos\Artifice\External_Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A18F89D6-0F0E-4624-92E7-3181395DC7F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84BAB80C-B722-4C3A-B529-0F01D8063AFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13092" yWindow="1320" windowWidth="20364" windowHeight="21552" xr2:uid="{DAF00B8F-046E-4092-AD6C-FDC3C7F4F36F}"/>
+    <workbookView xWindow="-22755" yWindow="14610" windowWidth="19200" windowHeight="16380" xr2:uid="{DAF00B8F-046E-4092-AD6C-FDC3C7F4F36F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>a</t>
   </si>
@@ -60,6 +60,12 @@
   </si>
   <si>
     <t>h</t>
+  </si>
+  <si>
+    <t>rank</t>
+  </si>
+  <si>
+    <t>file</t>
   </si>
 </sst>
 </file>
@@ -181,7 +187,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -195,9 +201,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -216,7 +219,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -261,7 +264,7 @@
       <xdr:col>12</xdr:col>
       <xdr:colOff>131378</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>81561</xdr:rowOff>
+      <xdr:rowOff>96801</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -611,10 +614,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9B15937-24F7-46DD-8587-3302C01400E6}">
-  <dimension ref="C10:L19"/>
+  <dimension ref="B10:L20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -624,265 +627,321 @@
     <col min="4" max="11" width="7.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="10" spans="3:11" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="11" spans="3:11" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:11" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11">
+        <v>0</v>
+      </c>
       <c r="C11" s="1">
         <v>8</v>
       </c>
       <c r="D11" s="2">
         <v>0</v>
       </c>
-      <c r="E11" s="14">
+      <c r="E11" s="13">
         <v>1</v>
       </c>
       <c r="F11" s="3">
         <v>2</v>
       </c>
-      <c r="G11" s="14">
+      <c r="G11" s="13">
         <v>3</v>
       </c>
       <c r="H11" s="3">
         <v>4</v>
       </c>
-      <c r="I11" s="14">
+      <c r="I11" s="13">
         <v>5</v>
       </c>
       <c r="J11" s="3">
         <v>6</v>
       </c>
-      <c r="K11" s="16">
+      <c r="K11" s="15">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="3:11" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:11" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12">
+        <v>1</v>
+      </c>
       <c r="C12" s="1">
         <v>7</v>
       </c>
-      <c r="D12" s="13">
+      <c r="D12" s="12">
         <v>8</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="1">
         <v>9</v>
       </c>
-      <c r="F12" s="12">
+      <c r="F12" s="11">
         <v>10</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G12" s="1">
         <v>11</v>
       </c>
-      <c r="H12" s="12">
+      <c r="H12" s="11">
         <v>12</v>
       </c>
-      <c r="I12" s="5">
+      <c r="I12" s="1">
         <v>13</v>
       </c>
-      <c r="J12" s="12">
+      <c r="J12" s="11">
         <v>14</v>
       </c>
-      <c r="K12" s="6">
+      <c r="K12" s="5">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="3:11" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:11" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13">
+        <v>2</v>
+      </c>
       <c r="C13" s="1">
         <v>6</v>
       </c>
       <c r="D13" s="4">
         <v>16</v>
       </c>
-      <c r="E13" s="12">
+      <c r="E13" s="11">
         <v>17</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F13" s="1">
         <v>18</v>
       </c>
-      <c r="G13" s="12">
+      <c r="G13" s="11">
         <v>19</v>
       </c>
-      <c r="H13" s="5">
+      <c r="H13" s="1">
         <v>20</v>
       </c>
-      <c r="I13" s="12">
+      <c r="I13" s="11">
         <v>21</v>
       </c>
-      <c r="J13" s="5">
+      <c r="J13" s="1">
         <v>22</v>
       </c>
-      <c r="K13" s="15">
+      <c r="K13" s="14">
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="3:11" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:11" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14">
+        <v>3</v>
+      </c>
       <c r="C14" s="1">
         <v>5</v>
       </c>
-      <c r="D14" s="13">
+      <c r="D14" s="12">
         <v>24</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" s="1">
         <v>25</v>
       </c>
-      <c r="F14" s="12">
+      <c r="F14" s="11">
         <v>26</v>
       </c>
-      <c r="G14" s="5">
+      <c r="G14" s="1">
         <v>27</v>
       </c>
-      <c r="H14" s="12">
+      <c r="H14" s="11">
         <v>28</v>
       </c>
-      <c r="I14" s="5">
+      <c r="I14" s="1">
         <v>29</v>
       </c>
-      <c r="J14" s="12">
+      <c r="J14" s="11">
         <v>30</v>
       </c>
-      <c r="K14" s="6">
+      <c r="K14" s="5">
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="3:11" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:11" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15">
+        <v>4</v>
+      </c>
       <c r="C15" s="1">
         <v>4</v>
       </c>
       <c r="D15" s="4">
         <v>32</v>
       </c>
-      <c r="E15" s="12">
+      <c r="E15" s="11">
         <v>33</v>
       </c>
-      <c r="F15" s="5">
+      <c r="F15" s="1">
         <v>34</v>
       </c>
-      <c r="G15" s="12">
+      <c r="G15" s="11">
         <v>35</v>
       </c>
-      <c r="H15" s="5">
+      <c r="H15" s="1">
         <v>36</v>
       </c>
-      <c r="I15" s="12">
+      <c r="I15" s="11">
         <v>37</v>
       </c>
-      <c r="J15" s="5">
+      <c r="J15" s="1">
         <v>38</v>
       </c>
-      <c r="K15" s="15">
+      <c r="K15" s="14">
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="3:11" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:11" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16">
+        <v>5</v>
+      </c>
       <c r="C16" s="1">
         <v>3</v>
       </c>
-      <c r="D16" s="13">
+      <c r="D16" s="12">
         <v>40</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E16" s="1">
         <v>41</v>
       </c>
-      <c r="F16" s="12">
+      <c r="F16" s="11">
         <v>42</v>
       </c>
-      <c r="G16" s="5">
+      <c r="G16" s="1">
         <v>43</v>
       </c>
-      <c r="H16" s="12">
+      <c r="H16" s="11">
         <v>44</v>
       </c>
-      <c r="I16" s="5">
+      <c r="I16" s="1">
         <v>45</v>
       </c>
-      <c r="J16" s="12">
+      <c r="J16" s="11">
         <v>46</v>
       </c>
-      <c r="K16" s="6">
+      <c r="K16" s="5">
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="3:12" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:12" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17">
+        <v>6</v>
+      </c>
       <c r="C17" s="1">
         <v>2</v>
       </c>
       <c r="D17" s="4">
         <v>48</v>
       </c>
-      <c r="E17" s="12">
+      <c r="E17" s="11">
         <v>49</v>
       </c>
-      <c r="F17" s="5">
+      <c r="F17" s="1">
         <v>50</v>
       </c>
-      <c r="G17" s="12">
+      <c r="G17" s="11">
         <v>51</v>
       </c>
-      <c r="H17" s="5">
+      <c r="H17" s="1">
         <v>52</v>
       </c>
-      <c r="I17" s="12">
+      <c r="I17" s="11">
         <v>53</v>
       </c>
-      <c r="J17" s="5">
+      <c r="J17" s="1">
         <v>54</v>
       </c>
-      <c r="K17" s="15">
+      <c r="K17" s="14">
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="3:12" ht="34.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:12" ht="34.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18">
+        <v>7</v>
+      </c>
       <c r="C18" s="1">
         <v>1</v>
       </c>
-      <c r="D18" s="10">
+      <c r="D18" s="9">
         <v>56</v>
       </c>
-      <c r="E18" s="7">
+      <c r="E18" s="6">
         <v>57</v>
       </c>
-      <c r="F18" s="11">
+      <c r="F18" s="10">
         <v>58</v>
       </c>
-      <c r="G18" s="7">
+      <c r="G18" s="6">
         <v>59</v>
       </c>
-      <c r="H18" s="11">
+      <c r="H18" s="10">
         <v>60</v>
       </c>
-      <c r="I18" s="7">
+      <c r="I18" s="6">
         <v>61</v>
       </c>
-      <c r="J18" s="11">
+      <c r="J18" s="10">
         <v>62</v>
       </c>
-      <c r="K18" s="8">
+      <c r="K18" s="7">
         <v>63</v>
       </c>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="D19" s="9" t="s">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="D19" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="E19" s="9" t="s">
+      <c r="E19" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="F19" s="9" t="s">
+      <c r="F19" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="G19" s="9" t="s">
+      <c r="G19" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H19" s="9" t="s">
+      <c r="H19" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="I19" s="9" t="s">
+      <c r="I19" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="J19" s="9" t="s">
+      <c r="J19" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="K19" s="9" t="s">
+      <c r="K19" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="L19" s="9"/>
+      <c r="L19" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+      <c r="G20">
+        <v>3</v>
+      </c>
+      <c r="H20">
+        <v>4</v>
+      </c>
+      <c r="I20">
+        <v>5</v>
+      </c>
+      <c r="J20">
+        <v>6</v>
+      </c>
+      <c r="K20">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
